--- a/infoege/variant25049996/files/22_15337.xlsx
+++ b/infoege/variant25049996/files/22_15337.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maratishimov/Documents/Documents/КИМ 2024/ЕГЭ_Основа_2023/досрок/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ege2024\infoege\variant25049996\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D95527-94A7-5646-933B-05330494FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102B7860-264A-4AC4-AF19-0B28CF721254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -63,15 +56,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -79,15 +78,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,18 +462,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+    <sheetView zoomScale="162" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -414,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -425,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -436,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -447,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -458,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -469,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -480,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -491,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -502,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -513,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -524,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -538,4 +630,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38E5FF-0D98-44D8-8DB0-34C5216A003A}">
+  <dimension ref="A1:AB10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="N1" s="3">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5">
+        <v>6</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="7"/>
+      <c r="Y2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="N3" s="8">
+        <v>5</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M6" s="12">
+        <v>9</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M7" s="13"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M8" s="12">
+        <v>10</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="9">
+        <v>12</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M9" s="13"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="9">
+        <v>13</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N10" s="10">
+        <v>11</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7175307-500C-4B48-A9C7-4BF9307CEA41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>